--- a/config/Programs.xlsx
+++ b/config/Programs.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/98b7d5602d91b815/Desktop/Cyber security trainer/Setup/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike_\GitHub\Cybersec\Cybersec-practice\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="360" documentId="11_F25DC773A252ABDACC104833515D558C5ADE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9C87F34-E9BB-488B-AB42-CF14DB60ABB0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1B261A-E232-406A-81D8-079A0B1A0872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="780" windowWidth="14985" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="4515" windowWidth="14730" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Software" sheetId="1" r:id="rId1"/>
-    <sheet name="Tempfiles" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,53 +80,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={7002A543-36DC-474B-A078-5D84142D615D}</author>
-    <author>tc={15CF4D99-7C81-4344-B1EB-149A12EB4ACB}</author>
-    <author>tc={F55D5BA7-CC64-48D4-9376-DEF4256E2F7C}</author>
-    <author>tc={67FFAE44-FB65-4BF3-A1D3-ECDE6D329892}</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{7002A543-36DC-474B-A078-5D84142D615D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    If a file leaves behind extra junk, select hardmode.  This will allow you to query 2 additional things for additional points.</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{15CF4D99-7C81-4344-B1EB-149A12EB4ACB}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Used by the Readme and scoring</t>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="2" shapeId="0" xr:uid="{F55D5BA7-CC64-48D4-9376-DEF4256E2F7C}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Select Wait or no wait depending on if you need to wait for the install to finish.  Some malware installs will not close until you have done something, so you may need to choose NoWait for them.</t>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="3" shapeId="0" xr:uid="{67FFAE44-FB65-4BF3-A1D3-ECDE6D329892}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This column is where you input the registry or filepath to validate the program.  Registry paths need to use HKLM:\ or HKCU:\ for verification to work</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="97">
   <si>
     <t>Filename</t>
   </si>
@@ -418,15 +372,6 @@
   </si>
   <si>
     <t>HKLM:\SOFTWARE\WOW6432Node\Microsoft\Windows\CurrentVersion\Uninstall\{D5C6DB0C-BC43-4A77-9121-D1A07591F855}_is1</t>
-  </si>
-  <si>
-    <t>Temp Files</t>
-  </si>
-  <si>
-    <t>Temp</t>
-  </si>
-  <si>
-    <t>%appdata%\Local\Microsoft\Edge\User Data\Default\IndexedDB\https_www.cnet.com_0.indexeddb.leveldb</t>
   </si>
 </sst>
 </file>
@@ -815,28 +760,11 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C1" dT="2025-10-02T17:28:45.92" personId="{8CD43C30-B79F-4B57-A474-DA8EC33DFB12}" id="{7002A543-36DC-474B-A078-5D84142D615D}">
-    <text>If a file leaves behind extra junk, select hardmode.  This will allow you to query 2 additional things for additional points.</text>
-  </threadedComment>
-  <threadedComment ref="D1" dT="2025-10-01T20:03:48.30" personId="{8CD43C30-B79F-4B57-A474-DA8EC33DFB12}" id="{15CF4D99-7C81-4344-B1EB-149A12EB4ACB}">
-    <text>Used by the Readme and scoring</text>
-  </threadedComment>
-  <threadedComment ref="F1" dT="2025-10-01T20:03:22.08" personId="{8CD43C30-B79F-4B57-A474-DA8EC33DFB12}" id="{F55D5BA7-CC64-48D4-9376-DEF4256E2F7C}">
-    <text>Select Wait or no wait depending on if you need to wait for the install to finish.  Some malware installs will not close until you have done something, so you may need to choose NoWait for them.</text>
-  </threadedComment>
-  <threadedComment ref="H1" dT="2025-08-25T21:57:12.48" personId="{8CD43C30-B79F-4B57-A474-DA8EC33DFB12}" id="{67FFAE44-FB65-4BF3-A1D3-ECDE6D329892}">
-    <text>This column is where you input the registry or filepath to validate the program.  Registry paths need to use HKLM:\ or HKCU:\ for verification to work</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
@@ -1477,94 +1405,4 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B76227-BB30-43F3-B1E9-0C0ED339844D}">
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 I2" xr:uid="{69B12905-61F9-4472-936E-BA9AAD046656}">
-      <formula1>"Registry Key, File,Folder,Registry Value"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{98D42CC2-A793-4E9A-AE35-B56FBAEA2167}">
-      <formula1>"Wait,NoWait"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{E3B48A79-C674-4EC3-A27B-C2AD37D151C9}">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{46076C0C-79A1-4601-BF5F-55A4B8A8DBB7}">
-      <formula1>"RegistryKey,File,Folder"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/config/Programs.xlsx
+++ b/config/Programs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike_\GitHub\Cybersec\Cybersec-practice\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1B261A-E232-406A-81D8-079A0B1A0872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357EABD0-B785-4DA3-901D-FB7205D8FC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1065" yWindow="4515" windowWidth="14730" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,6 +42,7 @@
     <author>tc={68BC9ABD-A73C-42DF-90C7-CA7FC2BFE757}</author>
     <author>tc={49D2EAE8-6B4E-47FB-9F94-6F66DACA1B90}</author>
     <author>tc={C1542AB1-4F61-452D-BB8A-01AB0387EBDA}</author>
+    <author>tc={E5648C2A-07E0-4434-8E8C-C600CAB8B365}</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{97579503-219D-4842-B481-A01C26B7D412}">
@@ -76,12 +77,20 @@
     This column is where you input the registry or filepath to validate the program.  Registry paths need to use HKLM:\ or HKCU:\ for verification to work</t>
       </text>
     </comment>
+    <comment ref="M1" authorId="4" shapeId="0" xr:uid="{E5648C2A-07E0-4434-8E8C-C600CAB8B365}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Set to Yes if the appplication does not support -wait, but you still need to pause before continuing.  This helps to delay the Loading screen from disappearing prematurely.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="98">
   <si>
     <t>Filename</t>
   </si>
@@ -372,13 +381,16 @@
   </si>
   <si>
     <t>HKLM:\SOFTWARE\WOW6432Node\Microsoft\Windows\CurrentVersion\Uninstall\{D5C6DB0C-BC43-4A77-9121-D1A07591F855}_is1</t>
+  </si>
+  <si>
+    <t>ForceWait</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +405,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -757,15 +775,18 @@
   <threadedComment ref="H1" dT="2025-08-25T21:57:12.48" personId="{8CD43C30-B79F-4B57-A474-DA8EC33DFB12}" id="{C1542AB1-4F61-452D-BB8A-01AB0387EBDA}">
     <text>This column is where you input the registry or filepath to validate the program.  Registry paths need to use HKLM:\ or HKCU:\ for verification to work</text>
   </threadedComment>
+  <threadedComment ref="M1" dT="2025-11-04T20:38:21.89" personId="{8CD43C30-B79F-4B57-A474-DA8EC33DFB12}" id="{E5648C2A-07E0-4434-8E8C-C600CAB8B365}">
+    <text>Set to Yes if the appplication does not support -wait, but you still need to pause before continuing.  This helps to delay the Loading screen from disappearing prematurely.</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection sqref="A1:L2"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,7 +798,7 @@
     <col min="8" max="8" width="126.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -814,8 +835,11 @@
       <c r="L1" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -841,7 +865,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -867,7 +891,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -893,7 +917,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -919,7 +943,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -945,7 +969,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -971,7 +995,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1003,7 +1027,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1029,7 +1053,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1067,7 +1091,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1093,7 +1117,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1125,7 +1149,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1163,7 +1187,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1189,7 +1213,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1215,7 +1239,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1241,7 +1265,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1279,7 +1303,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1305,7 +1329,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1330,8 +1354,11 @@
       <c r="H19" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1357,7 +1384,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -1391,7 +1418,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G22 G24:G1048576" xr:uid="{0FFCB68B-FA9F-484E-85D0-16EF647486F4}">
       <formula1>"RegistryKey,File,Folder"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C22 C24:C1048576" xr:uid="{2DCA6A76-F09F-4404-9AB9-7BEB5DB38117}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C22 C24:C1048576 O1:O1048576 M2:M1048576" xr:uid="{2DCA6A76-F09F-4404-9AB9-7BEB5DB38117}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F22 F24:F1048576" xr:uid="{104019E6-74A2-4236-9297-DF66F6F580D3}">

--- a/config/Programs.xlsx
+++ b/config/Programs.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike_\GitHub\Cybersec\Cybersec-practice\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357EABD0-B785-4DA3-901D-FB7205D8FC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001EEDEC-5EAE-489D-ACA9-B2CA17BD5E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="4515" windowWidth="14730" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8040" yWindow="3510" windowWidth="21960" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Software" sheetId="1" r:id="rId1"/>
+    <sheet name="Totals" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="102">
   <si>
     <t>Filename</t>
   </si>
@@ -384,13 +385,25 @@
   </si>
   <si>
     <t>ForceWait</t>
+  </si>
+  <si>
+    <t>Total Safe Programs</t>
+  </si>
+  <si>
+    <t>Total Malware Programs</t>
+  </si>
+  <si>
+    <t>Total Unauthorized Programs</t>
+  </si>
+  <si>
+    <t>Total Manual Malware Programs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,12 +418,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -785,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,4 +1439,58 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C64430-FE6C-4714-B10E-3705B50E4586}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1">
+        <f>COUNTIF(Software!B:B, "Safe")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <f>COUNTIF(Software!B:B, "Unauthorized")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3">
+        <f>COUNTIF(Software!B:B, "manualmalware")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIF(Software!B:B, "malware")</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config/Programs.xlsx
+++ b/config/Programs.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike_\GitHub\Cybersec\Cybersec-practice\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001EEDEC-5EAE-489D-ACA9-B2CA17BD5E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03B22C0-3D52-4139-9DB9-773E8FE4684B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="3510" windowWidth="21960" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8235" yWindow="4155" windowWidth="21960" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Software" sheetId="1" r:id="rId1"/>
-    <sheet name="Totals" sheetId="2" r:id="rId2"/>
+    <sheet name="Software Categories" sheetId="3" r:id="rId2"/>
+    <sheet name="Totals" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -91,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="112">
   <si>
     <t>Filename</t>
   </si>
@@ -397,6 +398,36 @@
   </si>
   <si>
     <t>Total Manual Malware Programs</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>General, IT</t>
+  </si>
+  <si>
+    <t>Adventure, Mapping, Training</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Mapping</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Adventure</t>
   </si>
 </sst>
 </file>
@@ -505,6 +536,16 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Mike Law" id="{8CD43C30-B79F-4B57-A474-DA8EC33DFB12}" userId="98b7d5602d91b815" providerId="Windows Live"/>
 </personList>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B968332B-406B-43C4-8C8C-AEF4CCF97C0A}" name="Table1" displayName="Table1" ref="A1:A1048576" totalsRowShown="0">
+  <autoFilter ref="A1:A1048576" xr:uid="{B968332B-406B-43C4-8C8C-AEF4CCF97C0A}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{9B028EA3-A4D0-4B6F-9074-390FD0FE939F}" name="Category"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -790,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,7 +846,7 @@
     <col min="8" max="8" width="126.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -845,8 +886,11 @@
       <c r="M1" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -871,8 +915,11 @@
       <c r="H2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -897,8 +944,11 @@
       <c r="H3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -923,8 +973,11 @@
       <c r="H4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -949,8 +1002,11 @@
       <c r="H5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -975,8 +1031,11 @@
       <c r="H6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1002,7 +1061,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1034,7 +1093,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1060,7 +1119,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1098,7 +1157,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1124,7 +1183,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1156,7 +1215,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1194,7 +1253,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1220,7 +1279,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1246,7 +1305,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1272,7 +1331,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1310,7 +1369,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1336,7 +1395,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1365,7 +1424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1391,7 +1450,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -1416,10 +1475,13 @@
       <c r="H21" t="s">
         <v>94</v>
       </c>
+      <c r="N21" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H19 J19 L19" xr:uid="{8A252F29-8030-444F-B770-32BE651BD0B2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H19 J19 N19 L19" xr:uid="{8A252F29-8030-444F-B770-32BE651BD0B2}">
       <formula1>"Registry Key, File,Registry Value"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G22 G24:G1048576" xr:uid="{0FFCB68B-FA9F-484E-85D0-16EF647486F4}">
@@ -1442,6 +1504,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634DEE5C-1F55-4607-8A39-A2716773C7B5}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C64430-FE6C-4714-B10E-3705B50E4586}">
   <dimension ref="A1:B4"/>
   <sheetViews>

--- a/config/Programs.xlsx
+++ b/config/Programs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike_\GitHub\Cybersec\Cybersec-practice\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03B22C0-3D52-4139-9DB9-773E8FE4684B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946FC276-943B-4994-B056-2ACA5A2165D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8235" yWindow="4155" windowWidth="21960" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="5685" windowWidth="21960" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Software" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="112">
   <si>
     <t>Filename</t>
   </si>
@@ -833,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,7 +1270,7 @@
         <v>51</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
         <v>22</v>
@@ -1367,6 +1367,9 @@
       </c>
       <c r="L17" t="s">
         <v>90</v>
+      </c>
+      <c r="M17" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">

--- a/config/Programs.xlsx
+++ b/config/Programs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike_\GitHub\Cybersec\Cybersec-practice\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946FC276-943B-4994-B056-2ACA5A2165D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CBEA76-B275-4998-B299-658A6374ACA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="5685" windowWidth="21960" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="0" windowWidth="15210" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Software" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="114">
   <si>
     <t>Filename</t>
   </si>
@@ -319,15 +319,9 @@
     <t>HKLM:\SOFTWARE\Microsoft\Windows\CurrentVersion\Uninstall\Notepad++</t>
   </si>
   <si>
-    <t>HKLM:\SOFTWARE\Microsoft\Windows\CurrentVersion\Uninstall\{6BBAE539-2232-434AA4E5-9A33560C6283}</t>
-  </si>
-  <si>
     <t>HKLM:\SOFTWARE\Wow6432Node\Microsoft\Windows\CurrentVersion\Uninstall\BleachBit</t>
   </si>
   <si>
-    <t>HKLM:\SOFTWARE\Microsoft\Windows\CurrentVersion\Uninstall\{37CAAB9AD072-46CB-947A-0751F1E390B3}</t>
-  </si>
-  <si>
     <t>HKLM:\SOFTWARE\Wow6432Node\Microsoft\Windows\CurrentVersion\Uninstall\3uToolsV3_x86</t>
   </si>
   <si>
@@ -352,12 +346,6 @@
     <t>HKLM:\SOFTWARE\Wow6432Node\Angry IP Scanner</t>
   </si>
   <si>
-    <t>HKLM:\SOFTWARE\Wow6432Node\Microsoft\Windows\CurrentVersion\Uninstall\Opera GX 122.0.5643.105</t>
-  </si>
-  <si>
-    <t>HKLM:\SOFTWARE\Microsoft\Windows\CurrentVersion\Uninstall\{EA1D5623E6A7-4E4A-9259E39722050200}</t>
-  </si>
-  <si>
     <t>HKLM:\SOFTWARE\Microsoft\Windows\CurrentVersion\Uninstall\Tabular Editor 3 3.22.1</t>
   </si>
   <si>
@@ -373,12 +361,6 @@
     <t>HKLM:\SOFTWARE\WOW6432Node\Microsoft\Windows\CurrentVersion\Uninstall\www.ushareit.com_is1</t>
   </si>
   <si>
-    <t>HKLM:\SOFTWARE\Microsoft\Windows\CurrentVersion\Uninstall\{66F8C642B217-49D5-9D86-57E6DBCD6F49}</t>
-  </si>
-  <si>
-    <t>HKLM:\SOFTWARE\Microsoft\Windows\CurrentVersion\Uninstall\{E07417FFE888-4648-878C-73E25D64D50D}</t>
-  </si>
-  <si>
     <t>HKCU:\SOFTWARE\Microsoft\Windows\CurrentVersion\Uninstall\PCAppStore</t>
   </si>
   <si>
@@ -428,6 +410,30 @@
   </si>
   <si>
     <t>Adventure</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Opera GX\opera.exe</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Google\Drive File Stream\sheets.ico</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Wireshark</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Opera GX</t>
+  </si>
+  <si>
+    <t>C:\Program Files\PuTTY</t>
+  </si>
+  <si>
+    <t>C:\Program Files\usbipd-win</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Everything\Everything.exe</t>
   </si>
 </sst>
 </file>
@@ -834,7 +840,8 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +850,7 @@
     <col min="2" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="5" width="31.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="5"/>
-    <col min="8" max="8" width="126.7109375" customWidth="1"/>
+    <col min="8" max="8" width="97" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -884,10 +891,10 @@
         <v>68</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -916,7 +923,7 @@
         <v>73</v>
       </c>
       <c r="N2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -945,7 +952,7 @@
         <v>74</v>
       </c>
       <c r="N3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -968,13 +975,13 @@
         <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="N4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1000,10 +1007,10 @@
         <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1026,13 +1033,13 @@
         <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="N6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1058,7 +1065,7 @@
         <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1084,7 +1091,7 @@
         <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s">
         <v>62</v>
@@ -1116,7 +1123,7 @@
         <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1142,13 +1149,13 @@
         <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I10" t="s">
         <v>60</v>
       </c>
       <c r="J10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s">
         <v>62</v>
@@ -1180,7 +1187,7 @@
         <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1206,13 +1213,13 @@
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s">
         <v>60</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1238,19 +1245,19 @@
         <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s">
         <v>60</v>
       </c>
       <c r="J13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K13" t="s">
         <v>60</v>
       </c>
       <c r="L13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1261,7 +1268,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -1273,10 +1280,16 @@
         <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>107</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1299,10 +1312,10 @@
         <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1328,7 +1341,7 @@
         <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1354,7 +1367,7 @@
         <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I17" t="s">
         <v>62</v>
@@ -1366,7 +1379,7 @@
         <v>60</v>
       </c>
       <c r="L17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M17" t="s">
         <v>20</v>
@@ -1395,7 +1408,7 @@
         <v>22</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1421,7 +1434,7 @@
         <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M19" t="s">
         <v>20</v>
@@ -1447,10 +1460,13 @@
         <v>54</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="H20" t="s">
-        <v>93</v>
+        <v>109</v>
+      </c>
+      <c r="N20" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1473,13 +1489,13 @@
         <v>54</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="H21" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="N21" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1521,37 +1537,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1577,7 +1593,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B1">
         <f>COUNTIF(Software!B:B, "Safe")</f>
@@ -1586,7 +1602,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Software!B:B, "Unauthorized")</f>
@@ -1595,7 +1611,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B3">
         <f>COUNTIF(Software!B:B, "manualmalware")</f>
@@ -1604,7 +1620,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B4">
         <f>COUNTIF(Software!B:B, "malware")</f>
